--- a/doc/ref/路由表数据.xlsx
+++ b/doc/ref/路由表数据.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lab\ibgp_exp\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lab\ibgp_exp\doc\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>network</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +174,26 @@
   </si>
   <si>
     <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1-igpcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2-igpcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3-igpcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2、C3&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +590,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="A1:XFD1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -620,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -638,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -916,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="B10:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1147,4 +1168,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14" style="7" customWidth="1"/>
+    <col min="4" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="10.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>